--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>779.7021337349491</v>
+        <v>946.0386644933095</v>
       </c>
       <c r="AB2" t="n">
-        <v>1066.822857406607</v>
+        <v>1294.411837040025</v>
       </c>
       <c r="AC2" t="n">
-        <v>965.0067811910044</v>
+        <v>1170.874988031348</v>
       </c>
       <c r="AD2" t="n">
-        <v>779702.1337349492</v>
+        <v>946038.6644933096</v>
       </c>
       <c r="AE2" t="n">
-        <v>1066822.857406607</v>
+        <v>1294411.837040025</v>
       </c>
       <c r="AF2" t="n">
         <v>4.926672269756949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>965006.7811910044</v>
+        <v>1170874.988031348</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.6017963783167</v>
+        <v>529.2413649333678</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.8541775633651</v>
+        <v>724.1313839830025</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.8000244766398</v>
+        <v>655.0213010204444</v>
       </c>
       <c r="AD3" t="n">
-        <v>421601.7963783168</v>
+        <v>529241.3649333678</v>
       </c>
       <c r="AE3" t="n">
-        <v>576854.1775633651</v>
+        <v>724131.3839830025</v>
       </c>
       <c r="AF3" t="n">
         <v>7.649649529832537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.51432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>521800.0244766398</v>
+        <v>655021.3010204444</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.5784271359722</v>
+        <v>445.6077987614028</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.2545792542823</v>
+        <v>609.7002490939832</v>
       </c>
       <c r="AC4" t="n">
-        <v>442.5608088833675</v>
+        <v>551.5113130401267</v>
       </c>
       <c r="AD4" t="n">
-        <v>357578.4271359722</v>
+        <v>445607.7987614028</v>
       </c>
       <c r="AE4" t="n">
-        <v>489254.5792542823</v>
+        <v>609700.2490939832</v>
       </c>
       <c r="AF4" t="n">
         <v>8.671579640984411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>442560.8088833675</v>
+        <v>551511.3130401267</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>315.873850874306</v>
+        <v>403.9363768886603</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.1925381370179</v>
+        <v>552.6835712743126</v>
       </c>
       <c r="AC5" t="n">
-        <v>390.9446888832572</v>
+        <v>499.9362269281555</v>
       </c>
       <c r="AD5" t="n">
-        <v>315873.8508743059</v>
+        <v>403936.3768886603</v>
       </c>
       <c r="AE5" t="n">
-        <v>432192.5381370179</v>
+        <v>552683.5712743126</v>
       </c>
       <c r="AF5" t="n">
         <v>9.248961716051347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.97265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>390944.6888832572</v>
+        <v>499936.2269281555</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>301.9443591792105</v>
+        <v>380.1852095342928</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.1335930739858</v>
+        <v>520.1861762725154</v>
       </c>
       <c r="AC6" t="n">
-        <v>373.7047027876434</v>
+        <v>470.5403376949495</v>
       </c>
       <c r="AD6" t="n">
-        <v>301944.3591792105</v>
+        <v>380185.2095342928</v>
       </c>
       <c r="AE6" t="n">
-        <v>413133.5930739858</v>
+        <v>520186.1762725153</v>
       </c>
       <c r="AF6" t="n">
         <v>9.610819960174717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>373704.7027876434</v>
+        <v>470540.3376949495</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>294.4676905740627</v>
+        <v>372.708540929145</v>
       </c>
       <c r="AB7" t="n">
-        <v>402.9036852410832</v>
+        <v>509.9562684396127</v>
       </c>
       <c r="AC7" t="n">
-        <v>364.4511230005472</v>
+        <v>461.2867579078533</v>
       </c>
       <c r="AD7" t="n">
-        <v>294467.6905740626</v>
+        <v>372708.5409291451</v>
       </c>
       <c r="AE7" t="n">
-        <v>402903.6852410831</v>
+        <v>509956.2684396127</v>
       </c>
       <c r="AF7" t="n">
         <v>9.789940996406337e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.03515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>364451.1230005472</v>
+        <v>461286.7579078532</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.6023391834187</v>
+        <v>716.0958618661517</v>
       </c>
       <c r="AB2" t="n">
-        <v>794.405734838188</v>
+        <v>979.7939501250492</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.588766460682</v>
+        <v>886.2837906745596</v>
       </c>
       <c r="AD2" t="n">
-        <v>580602.3391834188</v>
+        <v>716095.8618661517</v>
       </c>
       <c r="AE2" t="n">
-        <v>794405.7348381879</v>
+        <v>979793.9501250491</v>
       </c>
       <c r="AF2" t="n">
         <v>6.38119475944117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.9140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>718588.766460682</v>
+        <v>886283.7906745595</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.257093985294</v>
+        <v>449.0284200675944</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.9736964768745</v>
+        <v>614.380494072276</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.9748033394524</v>
+        <v>555.7448820064562</v>
       </c>
       <c r="AD3" t="n">
-        <v>352257.093985294</v>
+        <v>449028.4200675944</v>
       </c>
       <c r="AE3" t="n">
-        <v>481973.6964768745</v>
+        <v>614380.4940722759</v>
       </c>
       <c r="AF3" t="n">
         <v>9.08814447716203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>435974.8033394524</v>
+        <v>555744.8820064563</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>309.6768577099475</v>
+        <v>387.0880965218888</v>
       </c>
       <c r="AB4" t="n">
-        <v>423.7135386974993</v>
+        <v>529.631010782825</v>
       </c>
       <c r="AC4" t="n">
-        <v>383.2749132498958</v>
+        <v>479.0837704555037</v>
       </c>
       <c r="AD4" t="n">
-        <v>309676.8577099475</v>
+        <v>387088.0965218887</v>
       </c>
       <c r="AE4" t="n">
-        <v>423713.5386974993</v>
+        <v>529631.0107828249</v>
       </c>
       <c r="AF4" t="n">
         <v>1.009896413398393e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>383274.9132498958</v>
+        <v>479083.7704555037</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.5914859821644</v>
+        <v>360.9685593753248</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.0223822941655</v>
+        <v>493.8931077462435</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.9900707208436</v>
+        <v>446.7566427262716</v>
       </c>
       <c r="AD5" t="n">
-        <v>283591.4859821644</v>
+        <v>360968.5593753249</v>
       </c>
       <c r="AE5" t="n">
-        <v>388022.3822941656</v>
+        <v>493893.1077462435</v>
       </c>
       <c r="AF5" t="n">
         <v>1.060912207143005e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.18489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>350990.0707208436</v>
+        <v>446756.6427262716</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>282.1436167397006</v>
+        <v>359.520690132861</v>
       </c>
       <c r="AB6" t="n">
-        <v>386.0413437211437</v>
+        <v>491.9120691732217</v>
       </c>
       <c r="AC6" t="n">
-        <v>349.1980996888258</v>
+        <v>444.9646716942538</v>
       </c>
       <c r="AD6" t="n">
-        <v>282143.6167397005</v>
+        <v>359520.690132861</v>
       </c>
       <c r="AE6" t="n">
-        <v>386041.3437211437</v>
+        <v>491912.0691732217</v>
       </c>
       <c r="AF6" t="n">
         <v>1.066240640615814e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.10677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>349198.0996888258</v>
+        <v>444964.6716942538</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.3697730484898</v>
+        <v>383.8904250269742</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.2967336952325</v>
+        <v>525.2558155721729</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.3792910408266</v>
+        <v>475.1261377351312</v>
       </c>
       <c r="AD2" t="n">
-        <v>290369.7730484898</v>
+        <v>383890.4250269742</v>
       </c>
       <c r="AE2" t="n">
-        <v>397296.7336952325</v>
+        <v>525255.8155721729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.287027645798696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>359379.2910408266</v>
+        <v>475126.1377351312</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.101499210884</v>
+        <v>336.9121987397725</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.6188343223949</v>
+        <v>460.9781338329518</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.3927560993599</v>
+        <v>416.9830277268085</v>
       </c>
       <c r="AD3" t="n">
-        <v>262101.499210884</v>
+        <v>336912.1987397725</v>
       </c>
       <c r="AE3" t="n">
-        <v>358618.8343223949</v>
+        <v>460978.1338329518</v>
       </c>
       <c r="AF3" t="n">
         <v>1.397888163063254e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>324392.7560993599</v>
+        <v>416983.0277268084</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.055391047237</v>
+        <v>472.8479379431022</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.2720646575652</v>
+        <v>646.9714092725096</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.9043448025488</v>
+        <v>585.2253660016165</v>
       </c>
       <c r="AD2" t="n">
-        <v>378055.391047237</v>
+        <v>472847.9379431022</v>
       </c>
       <c r="AE2" t="n">
-        <v>517272.0646575652</v>
+        <v>646971.4092725096</v>
       </c>
       <c r="AF2" t="n">
         <v>9.850489035044077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>467904.3448025489</v>
+        <v>585225.3660016165</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.5246308031331</v>
+        <v>350.8335965406623</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.3025139848178</v>
+        <v>480.0260044728543</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.6294319483869</v>
+        <v>434.212996326693</v>
       </c>
       <c r="AD3" t="n">
-        <v>265524.6308031331</v>
+        <v>350833.5965406623</v>
       </c>
       <c r="AE3" t="n">
-        <v>363302.5139848178</v>
+        <v>480026.0044728543</v>
       </c>
       <c r="AF3" t="n">
         <v>1.23926638611076e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>328629.4319483869</v>
+        <v>434212.996326693</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.4636409011825</v>
+        <v>347.7726066387117</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.1143325596253</v>
+        <v>475.8378230476619</v>
       </c>
       <c r="AC4" t="n">
-        <v>324.8409646802652</v>
+        <v>430.4245290585714</v>
       </c>
       <c r="AD4" t="n">
-        <v>262463.6409011825</v>
+        <v>347772.6066387118</v>
       </c>
       <c r="AE4" t="n">
-        <v>359114.3325596253</v>
+        <v>475837.8230476619</v>
       </c>
       <c r="AF4" t="n">
         <v>1.255974019484111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.52994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>324840.9646802652</v>
+        <v>430424.5290585714</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.2648016865085</v>
+        <v>347.4586705993986</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.5787602077139</v>
+        <v>475.408281908793</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.0701908124661</v>
+        <v>430.0359827231314</v>
       </c>
       <c r="AD2" t="n">
-        <v>264264.8016865085</v>
+        <v>347458.6705993986</v>
       </c>
       <c r="AE2" t="n">
-        <v>361578.7602077139</v>
+        <v>475408.281908793</v>
       </c>
       <c r="AF2" t="n">
         <v>1.524508447876615e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>327070.1908124661</v>
+        <v>430035.9827231314</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.1054057057769</v>
+        <v>348.2992746186671</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.728911711709</v>
+        <v>476.5584334127881</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.1105734711677</v>
+        <v>431.076365381833</v>
       </c>
       <c r="AD3" t="n">
-        <v>265105.4057057769</v>
+        <v>348299.2746186671</v>
       </c>
       <c r="AE3" t="n">
-        <v>362728.911711709</v>
+        <v>476558.4334127881</v>
       </c>
       <c r="AF3" t="n">
         <v>1.525014494773644e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>328110.5734711677</v>
+        <v>431076.365381833</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.2644189976839</v>
+        <v>770.1221009735543</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.8285598439438</v>
+        <v>1053.71503394125</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.0042200974706</v>
+        <v>953.1499500002348</v>
       </c>
       <c r="AD2" t="n">
-        <v>634264.4189976839</v>
+        <v>770122.1009735543</v>
       </c>
       <c r="AE2" t="n">
-        <v>867828.5598439438</v>
+        <v>1053715.03394125</v>
       </c>
       <c r="AF2" t="n">
         <v>5.964739022797046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.09244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>785004.2200974706</v>
+        <v>953149.9500002348</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.6731729114657</v>
+        <v>470.6609746732481</v>
       </c>
       <c r="AB3" t="n">
-        <v>511.2761204743833</v>
+        <v>643.9791096446852</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.4806451168494</v>
+        <v>582.5186472505527</v>
       </c>
       <c r="AD3" t="n">
-        <v>373673.1729114656</v>
+        <v>470660.9746732481</v>
       </c>
       <c r="AE3" t="n">
-        <v>511276.1204743834</v>
+        <v>643979.1096446852</v>
       </c>
       <c r="AF3" t="n">
         <v>8.696647155411626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>462480.6451168493</v>
+        <v>582518.6472505527</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.9775841604599</v>
+        <v>406.2564572234156</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.4392029461824</v>
+        <v>555.8580075430452</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.7860579632666</v>
+        <v>502.8076994547497</v>
       </c>
       <c r="AD4" t="n">
-        <v>318977.5841604599</v>
+        <v>406256.4572234156</v>
       </c>
       <c r="AE4" t="n">
-        <v>436439.2029461825</v>
+        <v>555858.0075430452</v>
       </c>
       <c r="AF4" t="n">
         <v>9.700809373948278e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.27864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>394786.0579632666</v>
+        <v>502807.6994547497</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.6637748819433</v>
+        <v>368.267884664853</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.698999974209</v>
+        <v>503.8803666308804</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.7431655907219</v>
+        <v>455.7907316401646</v>
       </c>
       <c r="AD5" t="n">
-        <v>290663.7748819432</v>
+        <v>368267.884664853</v>
       </c>
       <c r="AE5" t="n">
-        <v>397698.9999742089</v>
+        <v>503880.3666308803</v>
       </c>
       <c r="AF5" t="n">
         <v>1.025681819015929e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>359743.1655907219</v>
+        <v>455790.7316401646</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.0966563215761</v>
+        <v>362.7007661044858</v>
       </c>
       <c r="AB6" t="n">
-        <v>390.0818227559775</v>
+        <v>496.2631894126489</v>
       </c>
       <c r="AC6" t="n">
-        <v>352.852961075423</v>
+        <v>448.9005271248658</v>
       </c>
       <c r="AD6" t="n">
-        <v>285096.656321576</v>
+        <v>362700.7661044858</v>
       </c>
       <c r="AE6" t="n">
-        <v>390081.8227559775</v>
+        <v>496263.1894126489</v>
       </c>
       <c r="AF6" t="n">
         <v>1.041924483970982e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.08723958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>352852.9610754231</v>
+        <v>448900.5271248658</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.4308607210141</v>
+        <v>353.2918789335184</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.7012371540729</v>
+        <v>483.389534894525</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.5627331169269</v>
+        <v>437.2555161256639</v>
       </c>
       <c r="AD2" t="n">
-        <v>261430.8607210141</v>
+        <v>353291.8789335184</v>
       </c>
       <c r="AE2" t="n">
-        <v>357701.237154073</v>
+        <v>483389.534894525</v>
       </c>
       <c r="AF2" t="n">
         <v>1.597679642084625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>323562.7331169269</v>
+        <v>437255.5161256639</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.8228830418562</v>
+        <v>591.4043213910041</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.7276633499623</v>
+        <v>809.1854834444281</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.7683916197468</v>
+        <v>731.95795660345</v>
       </c>
       <c r="AD2" t="n">
-        <v>466822.8830418562</v>
+        <v>591404.3213910041</v>
       </c>
       <c r="AE2" t="n">
-        <v>638727.6633499623</v>
+        <v>809185.4834444281</v>
       </c>
       <c r="AF2" t="n">
         <v>7.840174635460275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>577768.3916197468</v>
+        <v>731957.95660345</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.394131278888</v>
+        <v>394.6901253312254</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.9584558046274</v>
+        <v>540.0324419776007</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.6873330050452</v>
+        <v>488.4925036555503</v>
       </c>
       <c r="AD3" t="n">
-        <v>308394.131278888</v>
+        <v>394690.1253312254</v>
       </c>
       <c r="AE3" t="n">
-        <v>421958.4558046274</v>
+        <v>540032.4419776007</v>
       </c>
       <c r="AF3" t="n">
         <v>1.049850267092694e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>381687.3330050452</v>
+        <v>488492.5036555503</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.8397335421466</v>
+        <v>350.4799640031866</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.6796043887788</v>
+        <v>479.5421488339135</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.9207088120405</v>
+        <v>433.775319190837</v>
       </c>
       <c r="AD4" t="n">
-        <v>273839.7335421466</v>
+        <v>350479.9640031866</v>
       </c>
       <c r="AE4" t="n">
-        <v>374679.6043887788</v>
+        <v>479542.1488339135</v>
       </c>
       <c r="AF4" t="n">
         <v>1.14200831605638e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>338920.7088120405</v>
+        <v>433775.319190837</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.8678695366414</v>
+        <v>349.5080999976813</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.3498571808326</v>
+        <v>478.2124016259673</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.7178708113087</v>
+        <v>432.5724811901052</v>
       </c>
       <c r="AD5" t="n">
-        <v>272867.8695366413</v>
+        <v>349508.0999976813</v>
       </c>
       <c r="AE5" t="n">
-        <v>373349.8571808326</v>
+        <v>478212.4016259674</v>
       </c>
       <c r="AF5" t="n">
         <v>1.146999134767765e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.28255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>337717.8708113087</v>
+        <v>432572.4811901052</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.6879783683205</v>
+        <v>675.7349135987781</v>
       </c>
       <c r="AB2" t="n">
-        <v>739.793145473649</v>
+        <v>924.5703201062596</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.1883259758439</v>
+        <v>836.3306263979115</v>
       </c>
       <c r="AD2" t="n">
-        <v>540687.9783683205</v>
+        <v>675734.9135987781</v>
       </c>
       <c r="AE2" t="n">
-        <v>739793.145473649</v>
+        <v>924570.3201062595</v>
       </c>
       <c r="AF2" t="n">
         <v>6.821049385310833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.83984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>669188.3259758439</v>
+        <v>836330.6263979115</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.9681939189923</v>
+        <v>437.444932834511</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.5277253750388</v>
+        <v>598.531455812581</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.0029740410192</v>
+        <v>541.4084537140017</v>
       </c>
       <c r="AD3" t="n">
-        <v>340968.1939189923</v>
+        <v>437444.932834511</v>
       </c>
       <c r="AE3" t="n">
-        <v>466527.7253750388</v>
+        <v>598531.455812581</v>
       </c>
       <c r="AF3" t="n">
         <v>9.51194443336213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.52864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>422002.9740410192</v>
+        <v>541408.4537140017</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.0263125175978</v>
+        <v>377.8519609996866</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.1950399613432</v>
+        <v>516.9937226918064</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.1918642176805</v>
+        <v>467.6525674033467</v>
       </c>
       <c r="AD4" t="n">
-        <v>291026.3125175978</v>
+        <v>377851.9609996866</v>
       </c>
       <c r="AE4" t="n">
-        <v>398195.0399613432</v>
+        <v>516993.7226918064</v>
       </c>
       <c r="AF4" t="n">
         <v>1.050610547737504e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.77734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>360191.8642176805</v>
+        <v>467652.5674033466</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.7874142740661</v>
+        <v>355.9288179338012</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.4492394424598</v>
+        <v>486.9975111682502</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.0442593974406</v>
+        <v>440.5191522076515</v>
       </c>
       <c r="AD5" t="n">
-        <v>278787.4142740661</v>
+        <v>355928.8179338012</v>
       </c>
       <c r="AE5" t="n">
-        <v>381449.2394424598</v>
+        <v>486997.5111682502</v>
       </c>
       <c r="AF5" t="n">
         <v>1.090192885600982e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.16536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>345044.2593974406</v>
+        <v>440519.1522076515</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.3542528397695</v>
+        <v>356.4956564995046</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.2248129752077</v>
+        <v>487.7730847009982</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.7458132807474</v>
+        <v>441.2207060909582</v>
       </c>
       <c r="AD6" t="n">
-        <v>279354.2528397695</v>
+        <v>356495.6564995046</v>
       </c>
       <c r="AE6" t="n">
-        <v>382224.8129752077</v>
+        <v>487773.0847009982</v>
       </c>
       <c r="AF6" t="n">
         <v>1.089840922268406e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>345745.8132807474</v>
+        <v>441220.7060909582</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>728.2057247474664</v>
+        <v>884.3769189570247</v>
       </c>
       <c r="AB2" t="n">
-        <v>996.3631987687088</v>
+        <v>1210.043516473058</v>
       </c>
       <c r="AC2" t="n">
-        <v>901.2716934827548</v>
+        <v>1094.55866156761</v>
       </c>
       <c r="AD2" t="n">
-        <v>728205.7247474664</v>
+        <v>884376.9189570247</v>
       </c>
       <c r="AE2" t="n">
-        <v>996363.1987687089</v>
+        <v>1210043.516473058</v>
       </c>
       <c r="AF2" t="n">
         <v>5.245020540914171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>901271.6934827549</v>
+        <v>1094558.66156761</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.3354184762616</v>
+        <v>505.8964484362691</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.7025340464864</v>
+        <v>692.1898393266433</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.3807483410206</v>
+        <v>626.1282125558487</v>
       </c>
       <c r="AD3" t="n">
-        <v>408335.4184762616</v>
+        <v>505896.4484362691</v>
       </c>
       <c r="AE3" t="n">
-        <v>558702.5340464865</v>
+        <v>692189.8393266433</v>
       </c>
       <c r="AF3" t="n">
         <v>7.974961315153766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>505380.7483410206</v>
+        <v>626128.2125558486</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.5769422965405</v>
+        <v>425.4424570874812</v>
       </c>
       <c r="AB4" t="n">
-        <v>461.8876652937377</v>
+        <v>582.1091389836362</v>
       </c>
       <c r="AC4" t="n">
-        <v>417.8057547815123</v>
+        <v>526.5534597543449</v>
       </c>
       <c r="AD4" t="n">
-        <v>337576.9422965405</v>
+        <v>425442.4570874812</v>
       </c>
       <c r="AE4" t="n">
-        <v>461887.6652937377</v>
+        <v>582109.1389836362</v>
       </c>
       <c r="AF4" t="n">
         <v>9.009395238172968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.78645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>417805.7547815123</v>
+        <v>526553.4597543449</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.2973806789438</v>
+        <v>395.1287300511037</v>
       </c>
       <c r="AB5" t="n">
-        <v>420.4578332485622</v>
+        <v>540.6325603052129</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.329927759594</v>
+        <v>489.0353475322465</v>
       </c>
       <c r="AD5" t="n">
-        <v>307297.3806789438</v>
+        <v>395128.7300511037</v>
       </c>
       <c r="AE5" t="n">
-        <v>420457.8332485622</v>
+        <v>540632.5603052129</v>
       </c>
       <c r="AF5" t="n">
         <v>9.580388981071982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.72526041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>380329.927759594</v>
+        <v>489035.3475322465</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>294.4380055586499</v>
+        <v>372.473365565115</v>
       </c>
       <c r="AB6" t="n">
-        <v>402.8630688933849</v>
+        <v>509.6344911313419</v>
       </c>
       <c r="AC6" t="n">
-        <v>364.4143830200679</v>
+        <v>460.9956905742666</v>
       </c>
       <c r="AD6" t="n">
-        <v>294438.0055586499</v>
+        <v>372473.365565115</v>
       </c>
       <c r="AE6" t="n">
-        <v>402863.0688933849</v>
+        <v>509634.4911313419</v>
       </c>
       <c r="AF6" t="n">
         <v>9.90747979327577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>364414.3830200679</v>
+        <v>460995.6905742666</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>291.7871364998452</v>
+        <v>369.8224965063103</v>
       </c>
       <c r="AB7" t="n">
-        <v>399.2360328990392</v>
+        <v>506.0074551369962</v>
       </c>
       <c r="AC7" t="n">
-        <v>361.1335062504456</v>
+        <v>457.7148138046443</v>
       </c>
       <c r="AD7" t="n">
-        <v>291787.1364998452</v>
+        <v>369822.4965063103</v>
       </c>
       <c r="AE7" t="n">
-        <v>399236.0328990392</v>
+        <v>506007.4551369962</v>
       </c>
       <c r="AF7" t="n">
         <v>9.968517055447735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>361133.5062504456</v>
+        <v>457714.8138046443</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.3206599638699</v>
+        <v>514.4892329967811</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.7363878636417</v>
+        <v>703.9468662492359</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.4611957587834</v>
+        <v>636.76316533004</v>
       </c>
       <c r="AD2" t="n">
-        <v>400320.6599638699</v>
+        <v>514489.2329967811</v>
       </c>
       <c r="AE2" t="n">
-        <v>547736.3878636416</v>
+        <v>703946.8662492359</v>
       </c>
       <c r="AF2" t="n">
         <v>9.087161153551903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>495461.1957587834</v>
+        <v>636763.16533004</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.0838431633109</v>
+        <v>362.2086246880358</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.4325353444489</v>
+        <v>495.5898198149151</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.0747635501877</v>
+        <v>448.2914229764595</v>
       </c>
       <c r="AD3" t="n">
-        <v>286083.8431633109</v>
+        <v>362208.6246880358</v>
       </c>
       <c r="AE3" t="n">
-        <v>391432.5353444489</v>
+        <v>495589.8198149151</v>
       </c>
       <c r="AF3" t="n">
         <v>1.169944768025416e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.07682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>354074.7635501877</v>
+        <v>448291.4229764595</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.716642013556</v>
+        <v>341.8072581195001</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.565232193855</v>
+        <v>467.6757700310735</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.8670767002809</v>
+        <v>423.0414509263728</v>
       </c>
       <c r="AD4" t="n">
-        <v>265716.642013556</v>
+        <v>341807.2581195001</v>
       </c>
       <c r="AE4" t="n">
-        <v>363565.232193855</v>
+        <v>467675.7700310735</v>
       </c>
       <c r="AF4" t="n">
         <v>1.2166124660183e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.41927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>328867.0767002809</v>
+        <v>423041.4509263728</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.8555207071711</v>
+        <v>412.7633691671541</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.2721903443333</v>
+        <v>564.7610515291631</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.6349848097341</v>
+        <v>510.8610494183332</v>
       </c>
       <c r="AD2" t="n">
-        <v>318855.5207071711</v>
+        <v>412763.3691671541</v>
       </c>
       <c r="AE2" t="n">
-        <v>436272.1903443333</v>
+        <v>564761.051529163</v>
       </c>
       <c r="AF2" t="n">
         <v>1.169928737410368e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.4140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>394634.9848097342</v>
+        <v>510861.0494183332</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.7414501203293</v>
+        <v>340.3156850193731</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.9167345709696</v>
+        <v>465.6349339119187</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.5211725348422</v>
+        <v>421.1953893420987</v>
       </c>
       <c r="AD3" t="n">
-        <v>255741.4501203293</v>
+        <v>340315.6850193731</v>
       </c>
       <c r="AE3" t="n">
-        <v>349916.7345709696</v>
+        <v>465634.9339119187</v>
       </c>
       <c r="AF3" t="n">
         <v>1.346112315985019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>316521.1725348422</v>
+        <v>421195.3893420987</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.0335544662965</v>
+        <v>356.0248978052579</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.8941134422262</v>
+        <v>487.1289718871221</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.54632436986</v>
+        <v>440.6380665000205</v>
       </c>
       <c r="AD2" t="n">
-        <v>263033.5544662965</v>
+        <v>356024.8978052579</v>
       </c>
       <c r="AE2" t="n">
-        <v>359894.1134422262</v>
+        <v>487128.9718871221</v>
       </c>
       <c r="AF2" t="n">
         <v>1.425270244868914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.89713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>325546.32436986</v>
+        <v>440638.0665000205</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.7420718099344</v>
+        <v>342.3942933423199</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.0223175449387</v>
+        <v>468.4789775211019</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.2349244318924</v>
+        <v>423.7680014208617</v>
       </c>
       <c r="AD3" t="n">
-        <v>258742.0718099344</v>
+        <v>342394.2933423199</v>
       </c>
       <c r="AE3" t="n">
-        <v>354022.3175449388</v>
+        <v>468478.9775211018</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458730419955317e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>320234.9244318923</v>
+        <v>423768.0014208617</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.4981008305273</v>
+        <v>368.6079355447123</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.6851439085153</v>
+        <v>504.34563924669</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.4485266653322</v>
+        <v>456.2115992905356</v>
       </c>
       <c r="AD2" t="n">
-        <v>277498.1008305273</v>
+        <v>368607.9355447124</v>
       </c>
       <c r="AE2" t="n">
-        <v>379685.1439085153</v>
+        <v>504345.63924669</v>
       </c>
       <c r="AF2" t="n">
         <v>1.672330420211799e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>343448.5266653322</v>
+        <v>456211.5992905356</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.9728454302768</v>
+        <v>628.0043375103194</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.1896367135828</v>
+        <v>859.2632401776278</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.5097836658591</v>
+        <v>777.2563625186062</v>
       </c>
       <c r="AD2" t="n">
-        <v>502972.8454302768</v>
+        <v>628004.3375103194</v>
       </c>
       <c r="AE2" t="n">
-        <v>688189.6367135828</v>
+        <v>859263.2401776279</v>
       </c>
       <c r="AF2" t="n">
         <v>7.303058657697347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>622509.7836658591</v>
+        <v>777256.3625186062</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.2378249645967</v>
+        <v>415.7544218868471</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.4777170642803</v>
+        <v>568.8535418161802</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.4847559971114</v>
+        <v>514.5629581762034</v>
       </c>
       <c r="AD3" t="n">
-        <v>329237.8249645967</v>
+        <v>415754.4218868471</v>
       </c>
       <c r="AE3" t="n">
-        <v>450477.7170642804</v>
+        <v>568853.5418161801</v>
       </c>
       <c r="AF3" t="n">
         <v>9.992223353639878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.13802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>407484.7559971114</v>
+        <v>514562.9581762035</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.4975856084995</v>
+        <v>368.0473369196735</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.1574154265524</v>
+        <v>503.5786034760459</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.3985322700692</v>
+        <v>455.5177683373002</v>
       </c>
       <c r="AD4" t="n">
-        <v>281497.5856084995</v>
+        <v>368047.3369196734</v>
       </c>
       <c r="AE4" t="n">
-        <v>385157.4154265524</v>
+        <v>503578.6034760459</v>
       </c>
       <c r="AF4" t="n">
         <v>1.097296116148724e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>348398.5322700692</v>
+        <v>455517.7683373002</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.2812011566053</v>
+        <v>352.1773628866385</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.6518839719443</v>
+        <v>481.8646048702061</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.7047567999005</v>
+        <v>435.8761232826135</v>
       </c>
       <c r="AD5" t="n">
-        <v>275281.2011566053</v>
+        <v>352177.3628866385</v>
       </c>
       <c r="AE5" t="n">
-        <v>376651.8839719443</v>
+        <v>481864.6048702061</v>
       </c>
       <c r="AF5" t="n">
         <v>1.119149059071239e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.19140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>340704.7567999004</v>
+        <v>435876.1232826135</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.5151259480003</v>
+        <v>825.4585726159139</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.7425734136641</v>
+        <v>1129.428835715159</v>
       </c>
       <c r="AC2" t="n">
-        <v>841.0092471089605</v>
+        <v>1021.63773279783</v>
       </c>
       <c r="AD2" t="n">
-        <v>679515.1259480004</v>
+        <v>825458.5726159139</v>
       </c>
       <c r="AE2" t="n">
-        <v>929742.5734136641</v>
+        <v>1129428.835715159</v>
       </c>
       <c r="AF2" t="n">
         <v>5.593092746079273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>841009.2471089605</v>
+        <v>1021637.73279783</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.0983763533075</v>
+        <v>482.4616642829067</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.9085878679135</v>
+        <v>660.1253337783029</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.6211717626468</v>
+        <v>597.1238984142258</v>
       </c>
       <c r="AD3" t="n">
-        <v>385098.3763533075</v>
+        <v>482461.6642829067</v>
       </c>
       <c r="AE3" t="n">
-        <v>526908.5878679135</v>
+        <v>660125.3337783029</v>
       </c>
       <c r="AF3" t="n">
         <v>8.340713706970837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>476621.1717626468</v>
+        <v>597123.8984142258</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>328.7913438257712</v>
+        <v>416.4183029624105</v>
       </c>
       <c r="AB4" t="n">
-        <v>449.8668218727815</v>
+        <v>569.761893192132</v>
       </c>
       <c r="AC4" t="n">
-        <v>406.9321637852925</v>
+        <v>515.3846177717136</v>
       </c>
       <c r="AD4" t="n">
-        <v>328791.3438257712</v>
+        <v>416418.3029624105</v>
       </c>
       <c r="AE4" t="n">
-        <v>449866.8218727815</v>
+        <v>569761.893192132</v>
       </c>
       <c r="AF4" t="n">
         <v>9.326265196925348e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.55859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>406932.1637852925</v>
+        <v>515384.6177717136</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.7031726530685</v>
+        <v>387.2959663709269</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.0671027947468</v>
+        <v>529.9154274808494</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.930874036809</v>
+        <v>479.3410428230501</v>
       </c>
       <c r="AD5" t="n">
-        <v>299703.1726530684</v>
+        <v>387295.9663709269</v>
       </c>
       <c r="AE5" t="n">
-        <v>410067.1027947468</v>
+        <v>529915.4274808494</v>
       </c>
       <c r="AF5" t="n">
         <v>9.879914719485298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>370930.874036809</v>
+        <v>479341.0428230501</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>289.066121392518</v>
+        <v>366.8894319284931</v>
       </c>
       <c r="AB6" t="n">
-        <v>395.5130199864799</v>
+        <v>501.99430678395</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.7658124649795</v>
+        <v>454.0846746979236</v>
       </c>
       <c r="AD6" t="n">
-        <v>289066.121392518</v>
+        <v>366889.4319284931</v>
       </c>
       <c r="AE6" t="n">
-        <v>395513.0199864799</v>
+        <v>501994.30678395</v>
       </c>
       <c r="AF6" t="n">
         <v>1.017120329155455e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.10026041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>357765.8124649795</v>
+        <v>454084.6746979236</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>288.1870840651011</v>
+        <v>366.0103946010761</v>
       </c>
       <c r="AB7" t="n">
-        <v>394.3102823347182</v>
+        <v>500.7915691321882</v>
       </c>
       <c r="AC7" t="n">
-        <v>356.677862406649</v>
+        <v>452.9967246395931</v>
       </c>
       <c r="AD7" t="n">
-        <v>288187.0840651011</v>
+        <v>366010.3946010761</v>
       </c>
       <c r="AE7" t="n">
-        <v>394310.2823347182</v>
+        <v>500791.5691321882</v>
       </c>
       <c r="AF7" t="n">
         <v>1.021170196176452e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.03515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>356677.862406649</v>
+        <v>452996.7246395932</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.718295731331</v>
+        <v>412.9728427976916</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.9290154420407</v>
+        <v>565.0476625917889</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.1378953718</v>
+        <v>511.1203067234031</v>
       </c>
       <c r="AD2" t="n">
-        <v>304718.295731331</v>
+        <v>412972.8427976916</v>
       </c>
       <c r="AE2" t="n">
-        <v>416929.0154420407</v>
+        <v>565047.6625917889</v>
       </c>
       <c r="AF2" t="n">
         <v>1.71133398393653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>377137.8953718</v>
+        <v>511120.3067234031</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.6335381795514</v>
+        <v>442.9972969769923</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.0157875634576</v>
+        <v>606.128445385342</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.4900702942631</v>
+        <v>548.2803972643802</v>
       </c>
       <c r="AD2" t="n">
-        <v>348633.5381795514</v>
+        <v>442997.2969769923</v>
       </c>
       <c r="AE2" t="n">
-        <v>477015.7875634576</v>
+        <v>606128.445385342</v>
       </c>
       <c r="AF2" t="n">
         <v>1.06813699954274e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.27994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>431490.0702942631</v>
+        <v>548280.3972643802</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.1708629368775</v>
+        <v>344.1246682627274</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.6090084817517</v>
+        <v>470.8465528259573</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.7656224091218</v>
+        <v>425.9096186615345</v>
       </c>
       <c r="AD3" t="n">
-        <v>259170.8629368775</v>
+        <v>344124.6682627274</v>
       </c>
       <c r="AE3" t="n">
-        <v>354609.0084817517</v>
+        <v>470846.5528259573</v>
       </c>
       <c r="AF3" t="n">
         <v>1.296728830473349e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>320765.6224091218</v>
+        <v>425909.6186615344</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.3274911424917</v>
+        <v>344.2812964683417</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.8233141026219</v>
+        <v>471.0608584468274</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.9594750023159</v>
+        <v>426.1034712547285</v>
       </c>
       <c r="AD4" t="n">
-        <v>259327.4911424917</v>
+        <v>344281.2964683417</v>
       </c>
       <c r="AE4" t="n">
-        <v>354823.3141026219</v>
+        <v>471060.8584468274</v>
       </c>
       <c r="AF4" t="n">
         <v>1.299922661905359e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>320959.4750023159</v>
+        <v>426103.4712547285</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.7660346122159</v>
+        <v>547.3912445829013</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.1295808464156</v>
+        <v>748.9648500356726</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.6175647095192</v>
+        <v>677.4846959270365</v>
       </c>
       <c r="AD2" t="n">
-        <v>432766.0346122159</v>
+        <v>547391.2445829014</v>
       </c>
       <c r="AE2" t="n">
-        <v>592129.5808464156</v>
+        <v>748964.8500356727</v>
       </c>
       <c r="AF2" t="n">
         <v>8.428339163447439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.88411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>535617.5647095193</v>
+        <v>677484.6959270365</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.4482829094526</v>
+        <v>383.3413292250672</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.9818631688171</v>
+        <v>524.5045184716064</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.1400853506169</v>
+        <v>474.4465433753907</v>
       </c>
       <c r="AD3" t="n">
-        <v>297448.2829094526</v>
+        <v>383341.3292250672</v>
       </c>
       <c r="AE3" t="n">
-        <v>406981.8631688171</v>
+        <v>524504.5184716064</v>
       </c>
       <c r="AF3" t="n">
         <v>1.106191742653302e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>368140.0853506168</v>
+        <v>474446.5433753907</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.5300989237417</v>
+        <v>344.9023627090148</v>
       </c>
       <c r="AB4" t="n">
-        <v>367.4147280593299</v>
+        <v>471.9106286768251</v>
       </c>
       <c r="AC4" t="n">
-        <v>332.3491820831563</v>
+        <v>426.8721406066354</v>
       </c>
       <c r="AD4" t="n">
-        <v>268530.0989237417</v>
+        <v>344902.3627090148</v>
       </c>
       <c r="AE4" t="n">
-        <v>367414.72805933</v>
+        <v>471910.6286768251</v>
       </c>
       <c r="AF4" t="n">
         <v>1.183066158769241e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>332349.1820831563</v>
+        <v>426872.1406066354</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>269.0908037211945</v>
+        <v>345.4630675064676</v>
       </c>
       <c r="AB5" t="n">
-        <v>368.1819090997548</v>
+        <v>472.6778097172499</v>
       </c>
       <c r="AC5" t="n">
-        <v>333.0431444418284</v>
+        <v>427.5661029653074</v>
       </c>
       <c r="AD5" t="n">
-        <v>269090.8037211945</v>
+        <v>345463.0675064676</v>
       </c>
       <c r="AE5" t="n">
-        <v>368181.9090997548</v>
+        <v>472677.8097172499</v>
       </c>
       <c r="AF5" t="n">
         <v>1.182888414454523e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>333043.1444418284</v>
+        <v>427566.1029653074</v>
       </c>
     </row>
   </sheetData>
